--- a/Burndowns/BurnDown.xlsx
+++ b/Burndowns/BurnDown.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/Documentacao-ES/Burndowns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFC5FB3-2067-4A73-9F31-D7D929C2F70A}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDBA122-A7CB-446D-A8A3-DAD681983D73}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19A0196-D1B4-42F9-82A4-338EA5D692C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E19A0196-D1B4-42F9-82A4-338EA5D692C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Julho" sheetId="1" r:id="rId1"/>
+    <sheet name="Setembro" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Tarefas restantes (esperado)</t>
   </si>
@@ -355,6 +356,573 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="379487888"/>
+        <c:axId val="379489552"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="379487888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379489552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="379489552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379487888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>BurnDown 01/07 - 31/07</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Setembro!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas restantes (esperado)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Setembro!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Setembro!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F4F-48E3-BF96-BF5500CDFB61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Setembro!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas restantes (ocorrido)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Setembro!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Setembro!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F4F-48E3-BF96-BF5500CDFB61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -593,7 +1161,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1134,6 +2258,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92B2B6C-F346-41C9-8625-3E14AF20E476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1449,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B82C9E-6B7D-4BEC-90A8-BF573B9E37BC}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,4 +2712,109 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64380018-9E5F-43F6-88E5-81C57BCAC00A}">
+  <dimension ref="B2:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>45543</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>45550</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>45557</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>45564</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>